--- a/StructureDefinition-VunsPneumoCondition.xlsx
+++ b/StructureDefinition-VunsPneumoCondition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:33:24+02:00</t>
+    <t>2025-05-23T16:57:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Diagnostic pneumologie</t>
+    <t>Profile pour un diagnostic pneumologique</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-VunsPneumoCondition.xlsx
+++ b/StructureDefinition-VunsPneumoCondition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:57:29+02:00</t>
+    <t>2025-05-27T16:55:56+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -731,7 +731,7 @@
     <t>Present on admission, Hospital acquired condition, Not applicable or unknown</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/hdr/ValueSet/poa-indicator-eu-hdr</t>
+    <t>http://terminology.ehdsi.eu/ValueSet/eHDSIConditionPOA</t>
   </si>
   <si>
     <t>Condition.category:treated</t>
@@ -746,7 +746,7 @@
     <t>Class of the problem (treated, other) in relation to the hospital encounter. Treated problems were treated or affected provisioning of care (diagnostics, therapy, nursing, monitoring) during the hospital encounter. At least one problem should be marked as Treated. Other problems are recorded only if they are important for continuity of care (after discharge).</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/hdr/ValueSet/treated-problem-eu-hdr</t>
+    <t>http://terminology.ehdsi.eu/ValueSet/eHDSITreatmentClass</t>
   </si>
   <si>
     <t>Condition.severity</t>
@@ -851,13 +851,13 @@
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
+    <t>A reference to a code defined by a terminology system</t>
   </si>
   <si>
     <t>A reference to a code defined by a terminology system.</t>
   </si>
   <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
@@ -866,10 +866,10 @@
     <t>CodeableConcept.coding</t>
   </si>
   <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>CV</t>
   </si>
   <si>
     <t>Condition.code.coding.id</t>
@@ -4937,7 +4937,7 @@
         <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>262</v>
@@ -5010,7 +5010,7 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>101</v>
@@ -6082,7 +6082,7 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>140</v>

--- a/StructureDefinition-VunsPneumoCondition.xlsx
+++ b/StructureDefinition-VunsPneumoCondition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T16:55:56+02:00</t>
+    <t>2025-05-28T10:00:58+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VunsPneumoCondition.xlsx
+++ b/StructureDefinition-VunsPneumoCondition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="487">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T10:00:58+02:00</t>
+    <t>2025-04-14</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>RM@H IG (C) 2025-2025 University Hospital of Liege, GSI Department, Belgium. This implementation guide is free software: you can redistribute it and/or modify it under the terms of the GNU General Public License as published by the Free Software Foundation, either version 3 of the License, or (at your option) any later version. This program is distributed in the hope that it will be useful, but WITHOUT ANY WARRANTY; without even the implied warranty of MERCHANTABILITY or FITNESS FOR A PARTICULAR PURPOSE. See the GNU General Public License for more details. You should have received a copy of the GNU General Public License along with this program. If not, see &lt;http://www.gnu.org/licenses/&gt;.</t>
   </si>
   <si>
     <t>FHIR Version</t>
@@ -268,8 +271,8 @@
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
   </si>
   <si>
-    <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -431,20 +434,30 @@
     <t>Condition.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -471,21 +484,6 @@
     <t>Record details about the anatomical location of a specimen or body part. This resource may be used when a coded concept does not provide the necessary detail needed for the use case.</t>
   </si>
   <si>
-    <t>Condition.extension:bodySite.id</t>
-  </si>
-  <si>
-    <t>Condition.extension.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -493,13 +491,32 @@
     <t>n/a</t>
   </si>
   <si>
+    <t>Condition.extension:bodySite.id</t>
+  </si>
+  <si>
+    <t>Condition.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t>Condition.extension:bodySite.extension</t>
   </si>
   <si>
     <t>Condition.extension.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -539,21 +556,13 @@
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">ext-1
-</t>
-  </si>
-  <si>
     <t>Condition.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -563,9 +572,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -594,6 +600,9 @@
     <t>Event.identifier</t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
     <t>.id</t>
   </si>
   <si>
@@ -607,7 +616,7 @@
 </t>
   </si>
   <si>
-    <t>active | recurrence | relapse | inactive | remission | resolved</t>
+    <t>Concept - reference to a terminology or just  text</t>
   </si>
   <si>
     <t>The problem status describes the condition of the problem:
@@ -616,17 +625,20 @@
 3.	Problems with the status 'Inactive' refer to problems that don't affect the patient anymore or that of which there is no evidence of existence anymore.</t>
   </si>
   <si>
-    <t>The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
+    <t>The clinical status of the condition or diagnosis.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/condition-clinical</t>
   </si>
   <si>
-    <t>con-3
-con-4con-5</t>
+    <t>ele-1
+con-3con-4con-5</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -648,21 +660,17 @@
     <t>Condition.verificationStatus</t>
   </si>
   <si>
-    <t>unconfirmed | provisional | differential | confirmed | refuted | entered-in-error</t>
-  </si>
-  <si>
-    <t>The verification status to support the clinical status of the condition.</t>
-  </si>
-  <si>
-    <t>verificationStatus is not required.  For example, when a patient has abdominal pain in the ED, there is not likely going to be a verification status.
-The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
+    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
+  </si>
+  <si>
+    <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-ver-status</t>
   </si>
   <si>
-    <t>con-3
-con-5</t>
+    <t>ele-1
+con-3con-5</t>
   </si>
   <si>
     <t>&lt; 410514004 |Finding context value|</t>
@@ -687,9 +695,6 @@
     <t>Slices per type of classificaton</t>
   </si>
   <si>
-    <t>The categorization is often highly contextual and may appear poorly differentiated or not very useful in other contexts.</t>
-  </si>
-  <si>
     <t>extensible</t>
   </si>
   <si>
@@ -731,6 +736,9 @@
     <t>Present on admission, Hospital acquired condition, Not applicable or unknown</t>
   </si>
   <si>
+    <t>The categorization is often highly contextual and may appear poorly differentiated or not very useful in other contexts.</t>
+  </si>
+  <si>
     <t>http://terminology.ehdsi.eu/ValueSet/eHDSIConditionPOA</t>
   </si>
   <si>
@@ -752,13 +760,7 @@
     <t>Condition.severity</t>
   </si>
   <si>
-    <t>Subjective severity of condition</t>
-  </si>
-  <si>
     <t>A subjective assessment of the severity of the condition as evaluated by the clinician.</t>
-  </si>
-  <si>
-    <t>Coding of the severity with a terminology is preferred, where possible.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
@@ -784,9 +786,6 @@
   <si>
     <t xml:space="preserve">type
 </t>
-  </si>
-  <si>
-    <t>Identification of the condition, problem or diagnosis</t>
   </si>
   <si>
     <t>The problem code specifies the problem. Depending on the setting, different code systems can be used. The ProblemCodelist provides an overview of the possible code systems.</t>
@@ -831,17 +830,7 @@
     <t>Condition.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Condition.code.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Condition.code.coding</t>
@@ -866,10 +855,10 @@
     <t>CodeableConcept.coding</t>
   </si>
   <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
-    <t>CV</t>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
   </si>
   <si>
     <t>Condition.code.coding.id</t>
@@ -956,6 +945,9 @@
     <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
@@ -969,12 +961,6 @@
   </si>
   <si>
     <t>Condition.code.coding.display.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
   </si>
   <si>
     <t>Condition.code.coding.display.extension</t>
@@ -1005,9 +991,6 @@
     <t>Primitive value for string</t>
   </si>
   <si>
-    <t>The actual value</t>
-  </si>
-  <si>
     <t>1048576</t>
   </si>
   <si>
@@ -1069,19 +1052,16 @@
     <t>Condition.bodySite</t>
   </si>
   <si>
-    <t>Anatomical location, if relevant</t>
-  </si>
-  <si>
-    <t>The anatomical location where this condition manifests itself.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+    <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>.targetBodySiteCode</t>
@@ -1107,7 +1087,14 @@
     <t>Indicates the patient or group who the condition record is associated with.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>Group is typically used for veterinary or public health use cases.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -1290,8 +1277,8 @@
     <t>There is no explicit distinction between resolution and remission because in many cases the distinction is not clear. Age is generally used when the patient reports an age at which the Condition abated.  If there is no abatement element, it is unknown whether the condition has resolved or entered remission; applications and users should generally assume that the condition is still valid.  When abatementString exists, it implies the condition is abated.</t>
   </si>
   <si>
-    <t xml:space="preserve">con-4
-</t>
+    <t>ele-1
+con-4</t>
   </si>
   <si>
     <t>.effectiveTime.high or .inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="age at remission"].value or .inboundRelationship[typeCode=SUBJ]source[classCode=CONC, moodCode=EVN].status=completed</t>
@@ -1377,8 +1364,8 @@
     <t>Clinical stage or grade of a condition. May include formal severity assessments.</t>
   </si>
   <si>
-    <t>con-1:Stage SHALL have summary or assessment {summary.exists() or assessment.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+con-1:Stage SHALL have summary or assessment {summary.exists() or assessment.exists()}</t>
   </si>
   <si>
     <t>./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="stage/grade"]</t>
@@ -1425,8 +1412,8 @@
     <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
   </si>
   <si>
-    <t xml:space="preserve">con-1
-</t>
+    <t>ele-1
+con-1</t>
   </si>
   <si>
     <t>&lt; 254291000 |Staging and scales|</t>
@@ -1478,8 +1465,8 @@
     <t>The evidence may be a simple list of coded symptoms/manifestations, or references to observations or formal assessments, or both.</t>
   </si>
   <si>
-    <t>con-2:evidence SHALL have code or details {code.exists() or detail.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+con-2:evidence SHALL have code or details {code.exists() or detail.exists()}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=SPRT].target[classCode=OBS, moodCode=EVN]</t>
@@ -1509,8 +1496,8 @@
     <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom</t>
   </si>
   <si>
-    <t xml:space="preserve">con-2
-</t>
+    <t>ele-1
+con-2</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1546,6 +1533,9 @@
   </si>
   <si>
     <t>Comment by the one who determined or updated the Problem.</t>
+  </si>
+  <si>
+    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1815,54 +1805,56 @@
       <c r="A14" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1905,7 +1897,7 @@
     <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.20703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.6015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="82.47265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -1926,138 +1918,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2065,10 +2057,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>19</v>
@@ -2080,13 +2072,13 @@
         <v>19</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2137,31 +2129,31 @@
         <v>19</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>19</v>
@@ -2172,10 +2164,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2183,10 +2175,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>19</v>
@@ -2195,19 +2187,19 @@
         <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2257,13 +2249,13 @@
         <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>19</v>
@@ -2292,10 +2284,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2303,10 +2295,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>19</v>
@@ -2315,16 +2307,16 @@
         <v>19</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2375,19 +2367,19 @@
         <v>19</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>19</v>
@@ -2410,10 +2402,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2421,31 +2413,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2495,19 +2487,19 @@
         <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>19</v>
@@ -2530,10 +2522,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2541,10 +2533,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>19</v>
@@ -2556,16 +2548,16 @@
         <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2591,13 +2583,13 @@
         <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>19</v>
@@ -2615,19 +2607,19 @@
         <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>19</v>
@@ -2650,21 +2642,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>19</v>
@@ -2676,16 +2668,16 @@
         <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2735,19 +2727,19 @@
         <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>19</v>
@@ -2759,7 +2751,7 @@
         <v>19</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>19</v>
@@ -2770,21 +2762,21 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>19</v>
@@ -2796,16 +2788,16 @@
         <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2855,13 +2847,13 @@
         <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>19</v>
@@ -2879,7 +2871,7 @@
         <v>19</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>19</v>
@@ -2890,21 +2882,21 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>19</v>
@@ -2916,15 +2908,17 @@
         <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>19</v>
@@ -2961,29 +2955,31 @@
         <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>19</v>
@@ -2995,7 +2991,7 @@
         <v>19</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>19</v>
@@ -3006,23 +3002,23 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>19</v>
@@ -3034,15 +3030,17 @@
         <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>19</v>
@@ -3091,19 +3089,19 @@
         <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>19</v>
@@ -3115,7 +3113,7 @@
         <v>19</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>19</v>
@@ -3126,10 +3124,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3137,10 +3135,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>19</v>
@@ -3152,13 +3150,13 @@
         <v>19</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3209,31 +3207,31 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>19</v>
@@ -3244,21 +3242,21 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>19</v>
@@ -3270,15 +3268,17 @@
         <v>19</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>19</v>
@@ -3315,31 +3315,31 @@
         <v>19</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>19</v>
@@ -3351,7 +3351,7 @@
         <v>19</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>19</v>
@@ -3362,10 +3362,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3373,10 +3373,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>19</v>
@@ -3388,16 +3388,16 @@
         <v>19</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>19</v>
@@ -3447,13 +3447,13 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>19</v>
@@ -3471,7 +3471,7 @@
         <v>19</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>19</v>
@@ -3482,10 +3482,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3493,10 +3493,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>19</v>
@@ -3508,13 +3508,13 @@
         <v>19</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3565,19 +3565,19 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>19</v>
@@ -3589,7 +3589,7 @@
         <v>19</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>19</v>
@@ -3600,45 +3600,45 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>19</v>
@@ -3675,31 +3675,31 @@
         <v>19</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>19</v>
@@ -3711,7 +3711,7 @@
         <v>19</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>19</v>
@@ -3722,10 +3722,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3733,10 +3733,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>19</v>
@@ -3745,22 +3745,22 @@
         <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>19</v>
@@ -3809,34 +3809,34 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>19</v>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3855,31 +3855,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3905,11 +3905,13 @@
         <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>19</v>
@@ -3927,34 +3929,34 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>19</v>
@@ -3962,10 +3964,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3973,31 +3975,31 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4023,67 +4025,69 @@
         <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="Z18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4091,10 +4095,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>19</v>
@@ -4106,16 +4110,16 @@
         <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4141,56 +4145,56 @@
         <v>19</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>19</v>
@@ -4198,23 +4202,23 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>19</v>
@@ -4226,16 +4230,16 @@
         <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4261,11 +4265,13 @@
         <v>19</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>19</v>
@@ -4283,34 +4289,34 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>19</v>
@@ -4318,23 +4324,23 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>19</v>
@@ -4346,16 +4352,16 @@
         <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4381,11 +4387,13 @@
         <v>19</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Y21" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="Z21" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>19</v>
@@ -4403,34 +4411,34 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>19</v>
@@ -4438,10 +4446,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4449,10 +4457,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>19</v>
@@ -4464,16 +4472,16 @@
         <v>19</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4499,11 +4507,13 @@
         <v>19</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>19</v>
@@ -4521,56 +4531,56 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>19</v>
@@ -4579,18 +4589,20 @@
         <v>19</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>247</v>
       </c>
@@ -4617,7 +4629,7 @@
         <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y23" t="s" s="2">
         <v>248</v>
@@ -4641,19 +4653,19 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>250</v>
@@ -4687,10 +4699,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>19</v>
@@ -4702,13 +4714,13 @@
         <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4759,13 +4771,13 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>19</v>
@@ -4783,7 +4795,7 @@
         <v>19</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>19</v>
@@ -4794,21 +4806,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>19</v>
@@ -4820,16 +4832,16 @@
         <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>137</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4867,31 +4879,31 @@
         <v>19</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>19</v>
@@ -4903,7 +4915,7 @@
         <v>19</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>19</v>
@@ -4914,10 +4926,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4925,34 +4937,34 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>19</v>
@@ -5001,19 +5013,19 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>19</v>
@@ -5022,10 +5034,10 @@
         <v>19</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>19</v>
@@ -5036,10 +5048,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5047,10 +5059,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>19</v>
@@ -5062,13 +5074,13 @@
         <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5119,13 +5131,13 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>19</v>
@@ -5143,7 +5155,7 @@
         <v>19</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>19</v>
@@ -5154,21 +5166,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>19</v>
@@ -5180,16 +5192,16 @@
         <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>137</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5227,31 +5239,31 @@
         <v>19</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>19</v>
@@ -5263,7 +5275,7 @@
         <v>19</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>19</v>
@@ -5274,10 +5286,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5285,34 +5297,34 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
@@ -5361,19 +5373,19 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>19</v>
@@ -5382,10 +5394,10 @@
         <v>19</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>19</v>
@@ -5396,10 +5408,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5407,10 +5419,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>19</v>
@@ -5419,19 +5431,19 @@
         <v>19</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5481,19 +5493,19 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>19</v>
@@ -5502,10 +5514,10 @@
         <v>19</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>19</v>
@@ -5516,10 +5528,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5527,32 +5539,32 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -5577,53 +5589,53 @@
         <v>19</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>19</v>
@@ -5634,10 +5646,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5645,32 +5657,34 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -5719,31 +5733,31 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>19</v>
@@ -5754,10 +5768,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5765,10 +5779,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>19</v>
@@ -5780,13 +5794,13 @@
         <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>303</v>
+        <v>155</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>304</v>
+        <v>156</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5837,13 +5851,13 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>19</v>
@@ -5861,7 +5875,7 @@
         <v>19</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>19</v>
@@ -5872,21 +5886,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>19</v>
@@ -5898,15 +5912,17 @@
         <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -5943,29 +5959,31 @@
         <v>19</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>19</v>
@@ -5977,7 +5995,7 @@
         <v>19</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>19</v>
@@ -5988,23 +6006,23 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>19</v>
@@ -6016,15 +6034,17 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -6073,19 +6093,19 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>19</v>
@@ -6097,7 +6117,7 @@
         <v>19</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>19</v>
@@ -6108,10 +6128,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6119,10 +6139,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>19</v>
@@ -6134,13 +6154,13 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6164,7 +6184,7 @@
         <v>19</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="X36" t="s" s="2">
         <v>19</v>
@@ -6191,13 +6211,13 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>19</v>
@@ -6226,10 +6246,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6237,10 +6257,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>19</v>
@@ -6249,22 +6269,22 @@
         <v>19</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>19</v>
@@ -6313,19 +6333,19 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>19</v>
@@ -6334,10 +6354,10 @@
         <v>19</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>19</v>
@@ -6348,10 +6368,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6359,34 +6379,34 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>19</v>
@@ -6435,19 +6455,19 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>19</v>
@@ -6456,10 +6476,10 @@
         <v>19</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>19</v>
@@ -6470,10 +6490,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6481,10 +6501,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>19</v>
@@ -6493,19 +6513,19 @@
         <v>19</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>335</v>
+        <v>192</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>337</v>
+        <v>194</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6531,11 +6551,13 @@
         <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>19</v>
@@ -6553,56 +6575,56 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="AO39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>19</v>
@@ -6611,20 +6633,22 @@
         <v>19</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -6673,34 +6697,34 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>343</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>19</v>
@@ -6708,10 +6732,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6719,10 +6743,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>19</v>
@@ -6734,13 +6758,13 @@
         <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6791,13 +6815,13 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>19</v>
@@ -6815,7 +6839,7 @@
         <v>19</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>19</v>
@@ -6826,21 +6850,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>19</v>
@@ -6852,16 +6876,16 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>259</v>
+        <v>137</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6899,31 +6923,31 @@
         <v>19</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>19</v>
@@ -6935,7 +6959,7 @@
         <v>19</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>19</v>
@@ -6946,10 +6970,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6957,10 +6981,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>19</v>
@@ -6969,19 +6993,19 @@
         <v>19</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7031,19 +7055,19 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>19</v>
@@ -7055,7 +7079,7 @@
         <v>19</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>19</v>
@@ -7066,10 +7090,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7077,10 +7101,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>19</v>
@@ -7089,19 +7113,19 @@
         <v>19</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7127,13 +7151,13 @@
         <v>19</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>19</v>
@@ -7151,19 +7175,19 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>19</v>
@@ -7175,7 +7199,7 @@
         <v>19</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>19</v>
@@ -7186,10 +7210,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7197,10 +7221,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
@@ -7209,19 +7233,19 @@
         <v>19</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7271,19 +7295,19 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
@@ -7292,10 +7316,10 @@
         <v>19</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>19</v>
@@ -7306,10 +7330,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7317,10 +7341,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>19</v>
@@ -7329,19 +7353,19 @@
         <v>19</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7391,19 +7415,19 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>19</v>
@@ -7415,7 +7439,7 @@
         <v>19</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>19</v>
@@ -7426,10 +7450,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7437,10 +7461,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>19</v>
@@ -7449,19 +7473,19 @@
         <v>19</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7511,34 +7535,34 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>343</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>19</v>
@@ -7546,10 +7570,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7557,10 +7581,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>19</v>
@@ -7569,19 +7593,19 @@
         <v>19</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7619,44 +7643,44 @@
         <v>19</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>19</v>
@@ -7664,23 +7688,23 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>19</v>
@@ -7689,19 +7713,19 @@
         <v>19</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7751,34 +7775,34 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>19</v>
@@ -7786,10 +7810,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7797,10 +7821,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>19</v>
@@ -7812,16 +7836,16 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7859,29 +7883,29 @@
         <v>19</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI50" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>19</v>
@@ -7893,10 +7917,10 @@
         <v>19</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>19</v>
@@ -7904,23 +7928,23 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>19</v>
@@ -7932,16 +7956,16 @@
         <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7991,19 +8015,19 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI51" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>19</v>
@@ -8015,10 +8039,10 @@
         <v>19</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>19</v>
@@ -8026,10 +8050,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8037,10 +8061,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>19</v>
@@ -8049,16 +8073,16 @@
         <v>19</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8109,34 +8133,34 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="AO52" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>19</v>
@@ -8144,10 +8168,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8155,10 +8179,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>19</v>
@@ -8167,18 +8191,20 @@
         <v>19</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -8227,34 +8253,34 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="AO53" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>19</v>
@@ -8262,10 +8288,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8273,10 +8299,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>19</v>
@@ -8285,18 +8311,20 @@
         <v>19</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -8345,34 +8373,34 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AG54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="AO54" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>19</v>
@@ -8380,10 +8408,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8391,10 +8419,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>19</v>
@@ -8406,13 +8434,13 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8463,20 +8491,20 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AG55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AK55" t="s" s="2">
         <v>19</v>
       </c>
@@ -8487,7 +8515,7 @@
         <v>19</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>19</v>
@@ -8498,10 +8526,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8509,10 +8537,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>19</v>
@@ -8524,13 +8552,13 @@
         <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8581,13 +8609,13 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>19</v>
@@ -8605,7 +8633,7 @@
         <v>19</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>19</v>
@@ -8616,21 +8644,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>19</v>
@@ -8642,16 +8670,16 @@
         <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>259</v>
+        <v>137</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8689,31 +8717,31 @@
         <v>19</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>19</v>
@@ -8725,7 +8753,7 @@
         <v>19</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>19</v>
@@ -8736,45 +8764,45 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -8823,19 +8851,19 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>19</v>
@@ -8847,7 +8875,7 @@
         <v>19</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>19</v>
@@ -8858,10 +8886,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8869,10 +8897,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>19</v>
@@ -8884,15 +8912,17 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -8917,52 +8947,52 @@
         <v>19</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>449</v>
-      </c>
       <c r="AM59" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>253</v>
@@ -8976,10 +9006,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8987,10 +9017,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>19</v>
@@ -9002,15 +9032,17 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -9059,31 +9091,31 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>19</v>
@@ -9094,10 +9126,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9105,10 +9137,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>19</v>
@@ -9120,15 +9152,17 @@
         <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>19</v>
@@ -9153,13 +9187,13 @@
         <v>19</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>19</v>
@@ -9177,19 +9211,19 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>19</v>
@@ -9198,10 +9232,10 @@
         <v>19</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>19</v>
+        <v>333</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>19</v>
@@ -9212,10 +9246,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9223,10 +9257,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>19</v>
@@ -9238,16 +9272,16 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9297,20 +9331,20 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="AK62" t="s" s="2">
         <v>19</v>
       </c>
@@ -9321,7 +9355,7 @@
         <v>19</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>19</v>
@@ -9332,10 +9366,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9343,10 +9377,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>19</v>
@@ -9358,13 +9392,13 @@
         <v>19</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9415,13 +9449,13 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>19</v>
@@ -9439,7 +9473,7 @@
         <v>19</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>19</v>
@@ -9450,21 +9484,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>19</v>
@@ -9476,16 +9510,16 @@
         <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>259</v>
+        <v>137</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9523,31 +9557,31 @@
         <v>19</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>19</v>
@@ -9559,7 +9593,7 @@
         <v>19</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>19</v>
@@ -9570,45 +9604,45 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>19</v>
@@ -9657,19 +9691,19 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>19</v>
@@ -9681,7 +9715,7 @@
         <v>19</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>19</v>
@@ -9692,10 +9726,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9703,10 +9737,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>19</v>
@@ -9715,18 +9749,20 @@
         <v>19</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>19</v>
@@ -9751,58 +9787,58 @@
         <v>19</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="Z66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>19</v>
@@ -9810,10 +9846,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9821,10 +9857,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>19</v>
@@ -9833,18 +9869,20 @@
         <v>19</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>19</v>
@@ -9893,19 +9931,19 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>101</v>
+        <v>343</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>19</v>
@@ -9917,10 +9955,10 @@
         <v>19</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>19</v>
@@ -9928,10 +9966,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9939,10 +9977,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>19</v>
@@ -9954,15 +9992,17 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>19</v>
@@ -10011,31 +10051,31 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>19</v>
